--- a/metrics/results.xlsx
+++ b/metrics/results.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Desktop\disaster-tweets\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246A54C-248D-4DD9-951B-ED063CEEA295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827CE0AB-F3FB-4C09-9AAF-63C6B1B20463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Best Vectorizer for columns" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="40">
   <si>
     <t>cross_score</t>
   </si>
@@ -116,6 +119,36 @@
   </si>
   <si>
     <t>ekphrasis_stemming</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>tfidf, feat=5000</t>
+  </si>
+  <si>
+    <t>tfidf, ngrams=(1,2), feat=5000</t>
+  </si>
+  <si>
+    <t>tfidf, ngrams=(2,2), feat=5000</t>
+  </si>
+  <si>
+    <t>bow, ngrams=(1,2), feat=5000</t>
+  </si>
+  <si>
+    <t>bow, ngrams=(2,2), feat=5000</t>
+  </si>
+  <si>
+    <t>bow, feat=5000</t>
   </si>
 </sst>
 </file>
@@ -208,8 +241,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,22 +261,157 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -567,6 +740,5891 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none"/>
+              <a:t>no_punk_no_abb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$17:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), feat=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$17:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81013352842751696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76046024953955005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79995189662747301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80904313614588796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79790766767431198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72027750034712101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63982453475325796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79364209185060797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79809585965239405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79081113918702794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71002194359481696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63424101152092904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6EA-4F98-B0C3-FCC40A670781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$17:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.77404698811352302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72085800874931305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.784345214021957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54078305908865298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55116052312002395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63361506736981899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60116804206394503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62368146435220395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.601372291368239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58001782755214004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58869081303686399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60625760342810697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B6EA-4F98-B0C3-FCC40A670781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$17:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.67819247426675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61141920431680497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69490378628834304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69465128046344504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68211292495222897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67550425511844803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60126717917517603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70276332261890295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70043784636499395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.693614521301822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67073115473331602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59454969698098803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B6EA-4F98-B0C3-FCC40A670781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$17:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.76034721866162402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69119919514023598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74513310445357095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75433164568197297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.752362319789736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70104629403026197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61624814192225497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73981649338636901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75574657705704795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76567848777954295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69867948028039395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.595262674994816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B6EA-4F98-B0C3-FCC40A670781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$17:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.80846837976253605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76145267128299399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61850401249461595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61255419259916899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B6EA-4F98-B0C3-FCC40A670781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1074930511"/>
+        <c:axId val="1008468079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1074930511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008468079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1008468079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>F1 weighted score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074930511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none"/>
+              <a:t>lemmatization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.80027981859703201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76362575771369301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.803001797047591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.802738710011075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80325603330540696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71332624911017295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78046689224431698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.777774603108636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78552269054276702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70980779315981701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44429995443010001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23D8-4569-A496-66B575479520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75999657135732601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75387923431794601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76734838919384596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73836198219406002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56394377975937404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65746427348324099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61599312557541896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62390618297556499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61658154786829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42405147281949401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23D8-4569-A496-66B575479520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.665793024010776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.634432905163685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71235324327234695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71956846142878295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70769284400863797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67465161063202705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.722316992287934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71912213379476397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71021040683960301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68167809719443395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23D8-4569-A496-66B575479520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.76046024953955005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69424035454542099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75660797762907395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76171400155822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75091856706878002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68763000253181294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75888105965082597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74968694800910796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74041513314999297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.690841921587668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44429995443010001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23D8-4569-A496-66B575479520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.78079600469699195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74744774785326895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-23D8-4569-A496-66B575479520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1074930511"/>
+        <c:axId val="1008468079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1074930511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008468079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1008468079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>F1 weighted score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074930511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none"/>
+              <a:t>ekprasis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$31:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$31:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.82616411540663404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75320100761844999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80016087376809597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.803749783500189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.798824971262033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73030228867233205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65439255080977099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79485319067337801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79913362036039504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79476690859324095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71765204249542403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64791139595090996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C197-4D57-9D16-6F4CF51CD865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$31:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$31:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.77995228758853297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72537632716863898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79389438649909305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75625155458522098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74475371380673105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64055458948398902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63874123012136197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63435716133363296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61757647800299997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60024783866051801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.597032550421564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65356928669320802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C197-4D57-9D16-6F4CF51CD865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$31:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$31:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.69366192381964298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.607898756055398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68664654309467399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68253352154414204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69347576473305295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64738224428937796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61458059259536701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70797804453815405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69903752519518803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69234488988300402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65772861105290603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64238751029746799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C197-4D57-9D16-6F4CF51CD865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$31:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$31:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.77679627737592005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69110115550578499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72748142348769496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74502238397749398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73635972805390404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.697526152148914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64881070407646901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75569957976242197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74906389031385701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73780616030905399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69382861762546399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66520715207152004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C197-4D57-9D16-6F4CF51CD865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$31:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$31:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81010036911292704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75888105965082597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.659974407821727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64633187437528905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C197-4D57-9D16-6F4CF51CD865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1074930511"/>
+        <c:axId val="1008468079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1074930511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008468079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1008468079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>F1 weighted score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074930511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none"/>
+              <a:t>ekphrasis_rm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$45:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$45:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81918321486968504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74874022339706003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.799042448822184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80694684956104301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79860303702416502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72159755851558505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63982453475325796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79434018494935998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80114979947787102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79109565366218304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70908638346955899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63424101152092904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DCE-4534-9462-E6838A96286A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-nn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$45:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$45:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.778906553562139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73167972322645902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78573285313378605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54215500589154697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54846414748277394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63108781108810597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.603525631947887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61678622087132695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59780319693121398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58163111000700696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58458728392300996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60344373020985898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DCE-4534-9462-E6838A96286A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$45:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$45:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.70879295271921205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61538532106399702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68733002748529703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68608172709668103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68716485419432105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.663940773746304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.592006877317652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70312278418616003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70294592160493397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69343344308973298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66345914022111696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59518505821267098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DCE-4534-9462-E6838A96286A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$45:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$45:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.76861836234997105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66578508768511302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75573596221419703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74861966885710496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73678567087967195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68738959033057001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62114386733803395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75397948318721097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75896603806148899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75083089789996305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68733653642287795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60721321386134797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DCE-4534-9462-E6838A96286A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$45:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>doc2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tfidf, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tfidf, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tfidf, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tfidf, min_df=0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bow</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bow, features=5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bow, ngrams=(1,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bow, ngrams=(2,2), features=5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bow, min_df=0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$F$45:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.80034742687243998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75030044265701101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61850401249461595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44001116222615899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61255419259916899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4DCE-4534-9462-E6838A96286A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1074930511"/>
+        <c:axId val="1008468079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1074930511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008468079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1008468079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>F1 weighted score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074930511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389963</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161365</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C03D082-9F4E-4272-A811-DE2326E342D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>147920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C151D4-2D1A-498B-936F-F8A41596C6A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385484</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156886</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BF6405-F7F9-47E6-8F77-86904ECBFE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300320</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F62B05-FE8D-4920-A480-8E71FA51D951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="YoloV3"/>
+      <sheetName val="YoloV3-Tiny"/>
+      <sheetName val="Graphs"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Time</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>FPS</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Confidence Score</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Number of Objects</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CPU</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>0.3807438349111909</v>
+          </cell>
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>GPU</v>
+          </cell>
+          <cell r="B4">
+            <v>0.37788326115902271</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>0.9999991034174367</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NCS2</v>
+          </cell>
+          <cell r="B5">
+            <v>0.86297850171403423</v>
+          </cell>
+          <cell r="C5">
+            <v>0.43738913631427823</v>
+          </cell>
+          <cell r="D5">
+            <v>0.96926873605393993</v>
+          </cell>
+          <cell r="E5">
+            <v>0.89448355761518572</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -832,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:P31"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="X12" sqref="Q1:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,57 +6914,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,57 +7613,57 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +7811,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4">
@@ -2253,57 +8311,57 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +8609,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="4">
@@ -2560,7 +8618,7 @@
       <c r="C38" s="4">
         <v>2.3389430689703901E-2</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="7">
         <v>0.80325603330540696</v>
       </c>
       <c r="E38" s="4">
@@ -2951,57 +9009,57 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9" t="s">
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
@@ -3649,57 +9707,57 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="9" t="s">
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9" t="s">
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
@@ -4347,57 +10405,57 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9" t="s">
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9" t="s">
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
@@ -5045,57 +11103,57 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8" t="s">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="9" t="s">
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9" t="s">
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
@@ -5743,57 +11801,57 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8" t="s">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="9" t="s">
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9" t="s">
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="3" t="s">
         <v>0</v>
       </c>
@@ -5841,7 +11899,7 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="4">
@@ -6441,57 +12499,57 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8" t="s">
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="9" t="s">
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9" t="s">
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="3" t="s">
         <v>0</v>
       </c>
@@ -7140,25 +13198,34 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A121:P121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:P77"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A31:P31"/>
@@ -7175,169 +13242,160 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A121:P121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="top10" dxfId="44" priority="55" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="top10" dxfId="43" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J15">
-    <cfRule type="top10" dxfId="42" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M15">
-    <cfRule type="top10" dxfId="41" priority="52" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="52" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P15 R10">
-    <cfRule type="top10" dxfId="40" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D30">
-    <cfRule type="top10" dxfId="39" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G30">
-    <cfRule type="top10" dxfId="38" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J30">
-    <cfRule type="top10" dxfId="37" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:M30">
-    <cfRule type="top10" dxfId="36" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P30">
-    <cfRule type="top10" dxfId="35" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D45">
-    <cfRule type="top10" dxfId="34" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G45">
-    <cfRule type="top10" dxfId="33" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J45">
-    <cfRule type="top10" dxfId="32" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M45">
-    <cfRule type="top10" dxfId="31" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P45">
-    <cfRule type="top10" dxfId="30" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P60">
-    <cfRule type="top10" dxfId="29" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M60">
-    <cfRule type="top10" dxfId="28" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J60">
-    <cfRule type="top10" dxfId="27" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G60">
-    <cfRule type="top10" dxfId="26" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D60">
-    <cfRule type="top10" dxfId="25" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D90">
-    <cfRule type="top10" dxfId="24" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G90">
-    <cfRule type="top10" dxfId="23" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79:J90">
-    <cfRule type="top10" dxfId="22" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79:M90">
-    <cfRule type="top10" dxfId="21" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P79:P90">
-    <cfRule type="top10" dxfId="20" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94:D104">
-    <cfRule type="top10" dxfId="19" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G105">
-    <cfRule type="top10" dxfId="18" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J105">
-    <cfRule type="top10" dxfId="17" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M105">
-    <cfRule type="top10" dxfId="16" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P94:P105">
-    <cfRule type="top10" dxfId="15" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D74">
-    <cfRule type="top10" dxfId="14" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:G74">
-    <cfRule type="top10" dxfId="13" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J74">
-    <cfRule type="top10" dxfId="12" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:M74">
-    <cfRule type="top10" dxfId="11" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P74">
-    <cfRule type="top10" dxfId="10" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124:D134">
-    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:G134">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:J134">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124:M134">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124:P134">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D119">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G120">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J120">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:M120">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P109:P120">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7345,20 +13403,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32E5C8E-AE26-4257-99B2-1F226793B82F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6FF04-D40C-4FCD-A584-3F71B94911AA}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.80027981859703201</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.75999657135732601</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.665793024010776</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.76046024953955005</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.78079600469699195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.76362575771369301</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75387923431794601</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.634432905163685</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.69424035454542099</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.74744774785326895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.803001797047591</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.76734838919384596</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.71235324327234695</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.75660797762907395</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.802738710011075</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.73836198219406002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.71956846142878295</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.76171400155822</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.80325603330540696</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.56394377975937404</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.70769284400863797</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.75091856706878002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.71332624911017295</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.65746427348324099</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.67465161063202705</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.68763000253181294</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.78046689224431698</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.61599312557541896</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.722316992287934</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.75888105965082597</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.777774603108636</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.62390618297556499</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.71912213379476397</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.74968694800910796</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.78552269054276702</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.61658154786829</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.71021040683960301</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.74041513314999297</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.70980779315981701</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.42405147281949401</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.68167809719443395</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.690841921587668</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.44429995443010001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.44429995443010001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.81013352842751696</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.77404698811352302</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.67819247426675</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.76034721866162402</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.80846837976253605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.76046024953955005</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.72085800874931305</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.61141920431680497</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.69119919514023598</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.76145267128299399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.79995189662747301</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.784345214021957</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.69490378628834304</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.74513310445357095</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.80904313614588796</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.54078305908865298</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.69465128046344504</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.75433164568197297</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.79790766767431198</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.55116052312002395</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.68211292495222897</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.752362319789736</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.72027750034712101</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.63361506736981899</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.67550425511844803</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.70104629403026197</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.63982453475325796</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.60116804206394503</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.60126717917517603</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.61624814192225497</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.61850401249461595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.79364209185060797</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.62368146435220395</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.70276332261890295</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.73981649338636901</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.79809585965239405</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.601372291368239</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.70043784636499395</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.75574657705704795</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.79081113918702794</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.58001782755214004</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.693614521301822</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.76567848777954295</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.71002194359481696</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.58869081303686399</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.67073115473331602</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.69867948028039395</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.63424101152092904</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.60625760342810697</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.59454969698098803</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.595262674994816</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.61255419259916899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.82616411540663404</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.77995228758853297</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.69366192381964298</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.77679627737592005</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.81010036911292704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.75320100761844999</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.72537632716863898</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.607898756055398</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.69110115550578499</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.75888105965082597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.80016087376809597</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.79389438649909305</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.68664654309467399</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.72748142348769496</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.803749783500189</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.75625155458522098</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.68253352154414204</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.74502238397749398</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.798824971262033</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.74475371380673105</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.69347576473305295</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.73635972805390404</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.73030228867233205</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.64055458948398902</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.64738224428937796</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.697526152148914</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.65439255080977099</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.63874123012136197</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.61458059259536701</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.64881070407646901</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.659974407821727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.79485319067337801</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.63435716133363296</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.70797804453815405</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.75569957976242197</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.79913362036039504</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.61757647800299997</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.69903752519518803</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.74906389031385701</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.79476690859324095</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.60024783866051801</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.69234488988300402</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.73780616030905399</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.71765204249542403</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.597032550421564</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.65772861105290603</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.69382861762546399</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.64791139595090996</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.65356928669320802</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.64238751029746799</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.66520715207152004</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.64633187437528905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.81918321486968504</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.778906553562139</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.70879295271921205</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.76861836234997105</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.80034742687243998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.74874022339706003</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.73167972322645902</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.61538532106399702</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.66578508768511302</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.75030044265701101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.799042448822184</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.78573285313378605</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.68733002748529703</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.75573596221419703</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.80694684956104301</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.54215500589154697</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.68608172709668103</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.74861966885710496</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.79860303702416502</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.54846414748277394</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.68716485419432105</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.73678567087967195</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.72159755851558505</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.63108781108810597</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.663940773746304</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.68738959033057001</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.63982453475325796</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.603525631947887</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.592006877317652</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.62114386733803395</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.61850401249461595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.79434018494935998</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.61678622087132695</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.70312278418616003</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.75397948318721097</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.80114979947787102</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.59780319693121398</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.70294592160493397</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.75896603806148899</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.79109565366218304</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.58163111000700696</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.69343344308973298</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.75083089789996305</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.70908638346955899</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.58458728392300996</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.66345914022111696</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.68733653642287795</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.44001116222615899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.63424101152092904</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.60344373020985898</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.59518505821267098</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.60721321386134797</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.61255419259916899</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B14">
+    <cfRule type="top10" dxfId="19" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="top10" dxfId="18" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="top10" dxfId="17" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="top10" dxfId="16" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="top10" dxfId="15" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B42">
+    <cfRule type="top10" dxfId="14" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C42">
+    <cfRule type="top10" dxfId="13" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D42">
+    <cfRule type="top10" dxfId="12" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E42">
+    <cfRule type="top10" dxfId="11" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F42">
+    <cfRule type="top10" dxfId="10" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B55">
+    <cfRule type="top10" dxfId="9" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:C56">
+    <cfRule type="top10" dxfId="8" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D56">
+    <cfRule type="top10" dxfId="7" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E56">
+    <cfRule type="top10" dxfId="6" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:F56">
+    <cfRule type="top10" dxfId="5" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B27">
+    <cfRule type="top10" dxfId="4" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C27">
+    <cfRule type="top10" dxfId="3" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D27">
+    <cfRule type="top10" dxfId="2" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E27">
+    <cfRule type="top10" dxfId="1" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F27">
+    <cfRule type="top10" dxfId="0" priority="11" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>